--- a/Team-Data/2008-09/3-26-2008-09.xlsx
+++ b/Team-Data/2008-09/3-26-2008-09.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -744,7 +811,7 @@
         <v>2</v>
       </c>
       <c r="AD2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AE2" t="n">
         <v>12</v>
@@ -759,13 +826,13 @@
         <v>29</v>
       </c>
       <c r="AI2" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AJ2" t="n">
         <v>24</v>
       </c>
       <c r="AK2" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AL2" t="n">
         <v>8</v>
@@ -774,13 +841,13 @@
         <v>7</v>
       </c>
       <c r="AN2" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AO2" t="n">
         <v>23</v>
       </c>
       <c r="AP2" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AQ2" t="n">
         <v>29</v>
@@ -804,7 +871,7 @@
         <v>11</v>
       </c>
       <c r="AX2" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AY2" t="n">
         <v>6</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>3-26-2008-09</t>
+          <t>2009-03-26</t>
         </is>
       </c>
     </row>
@@ -848,28 +915,28 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E3" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F3" t="n">
         <v>19</v>
       </c>
       <c r="G3" t="n">
-        <v>0.736</v>
+        <v>0.74</v>
       </c>
       <c r="H3" t="n">
         <v>48.4</v>
       </c>
       <c r="I3" t="n">
-        <v>37.4</v>
+        <v>37.3</v>
       </c>
       <c r="J3" t="n">
-        <v>77</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="K3" t="n">
-        <v>0.486</v>
+        <v>0.485</v>
       </c>
       <c r="L3" t="n">
         <v>6.4</v>
@@ -878,37 +945,37 @@
         <v>16.3</v>
       </c>
       <c r="N3" t="n">
-        <v>0.394</v>
+        <v>0.392</v>
       </c>
       <c r="O3" t="n">
-        <v>19.7</v>
+        <v>19.8</v>
       </c>
       <c r="P3" t="n">
-        <v>25.6</v>
+        <v>25.7</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.771</v>
+        <v>0.769</v>
       </c>
       <c r="R3" t="n">
         <v>10.5</v>
       </c>
       <c r="S3" t="n">
-        <v>31.9</v>
+        <v>31.8</v>
       </c>
       <c r="T3" t="n">
-        <v>42.4</v>
+        <v>42.3</v>
       </c>
       <c r="U3" t="n">
-        <v>22.7</v>
+        <v>22.6</v>
       </c>
       <c r="V3" t="n">
         <v>15.7</v>
       </c>
       <c r="W3" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="X3" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="Y3" t="n">
         <v>4.7</v>
@@ -917,16 +984,16 @@
         <v>23.2</v>
       </c>
       <c r="AA3" t="n">
-        <v>22.4</v>
+        <v>22.5</v>
       </c>
       <c r="AB3" t="n">
-        <v>100.9</v>
+        <v>100.8</v>
       </c>
       <c r="AC3" t="n">
         <v>8.1</v>
       </c>
       <c r="AD3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AE3" t="n">
         <v>3</v>
@@ -938,7 +1005,7 @@
         <v>4</v>
       </c>
       <c r="AH3" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AI3" t="n">
         <v>9</v>
@@ -950,7 +1017,7 @@
         <v>2</v>
       </c>
       <c r="AL3" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AM3" t="n">
         <v>21</v>
@@ -959,13 +1026,13 @@
         <v>1</v>
       </c>
       <c r="AO3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AP3" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AQ3" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AR3" t="n">
         <v>21</v>
@@ -974,7 +1041,7 @@
         <v>5</v>
       </c>
       <c r="AT3" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AU3" t="n">
         <v>4</v>
@@ -986,10 +1053,10 @@
         <v>7</v>
       </c>
       <c r="AX3" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AY3" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AZ3" t="n">
         <v>27</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>3-26-2008-09</t>
+          <t>2009-03-26</t>
         </is>
       </c>
     </row>
@@ -1108,7 +1175,7 @@
         <v>-1.1</v>
       </c>
       <c r="AD4" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AE4" t="n">
         <v>18</v>
@@ -1120,7 +1187,7 @@
         <v>18</v>
       </c>
       <c r="AH4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AI4" t="n">
         <v>29</v>
@@ -1132,7 +1199,7 @@
         <v>16</v>
       </c>
       <c r="AL4" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AM4" t="n">
         <v>22</v>
@@ -1150,10 +1217,10 @@
         <v>28</v>
       </c>
       <c r="AR4" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AS4" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AT4" t="n">
         <v>27</v>
@@ -1183,7 +1250,7 @@
         <v>29</v>
       </c>
       <c r="BC4" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BD4" t="n">
         <v>10</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>3-26-2008-09</t>
+          <t>2009-03-26</t>
         </is>
       </c>
     </row>
@@ -1230,28 +1297,28 @@
         <v>37.8</v>
       </c>
       <c r="J5" t="n">
-        <v>83.5</v>
+        <v>83.40000000000001</v>
       </c>
       <c r="K5" t="n">
         <v>0.453</v>
       </c>
       <c r="L5" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="M5" t="n">
         <v>15.7</v>
       </c>
       <c r="N5" t="n">
-        <v>0.38</v>
+        <v>0.379</v>
       </c>
       <c r="O5" t="n">
-        <v>19.7</v>
+        <v>19.9</v>
       </c>
       <c r="P5" t="n">
-        <v>24.8</v>
+        <v>25.2</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.793</v>
+        <v>0.792</v>
       </c>
       <c r="R5" t="n">
         <v>12.1</v>
@@ -1269,28 +1336,28 @@
         <v>14.9</v>
       </c>
       <c r="W5" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="X5" t="n">
         <v>5.5</v>
       </c>
       <c r="Y5" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="Z5" t="n">
         <v>21.2</v>
       </c>
       <c r="AA5" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="AB5" t="n">
-        <v>101.3</v>
+        <v>101.4</v>
       </c>
       <c r="AC5" t="n">
-        <v>-0.9</v>
+        <v>-1</v>
       </c>
       <c r="AD5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AE5" t="n">
         <v>16</v>
@@ -1302,7 +1369,7 @@
         <v>17</v>
       </c>
       <c r="AH5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI5" t="n">
         <v>8</v>
@@ -1314,19 +1381,19 @@
         <v>19</v>
       </c>
       <c r="AL5" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AM5" t="n">
         <v>24</v>
       </c>
       <c r="AN5" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AO5" t="n">
+        <v>8</v>
+      </c>
+      <c r="AP5" t="n">
         <v>12</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>15</v>
       </c>
       <c r="AQ5" t="n">
         <v>7</v>
@@ -1347,7 +1414,7 @@
         <v>21</v>
       </c>
       <c r="AW5" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AX5" t="n">
         <v>5</v>
@@ -1359,7 +1426,7 @@
         <v>19</v>
       </c>
       <c r="BA5" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="BB5" t="n">
         <v>10</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>3-26-2008-09</t>
+          <t>2009-03-26</t>
         </is>
       </c>
     </row>
@@ -1394,43 +1461,43 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E6" t="n">
         <v>58</v>
       </c>
       <c r="F6" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G6" t="n">
-        <v>0.829</v>
+        <v>0.8169999999999999</v>
       </c>
       <c r="H6" t="n">
         <v>48.2</v>
       </c>
       <c r="I6" t="n">
-        <v>36.8</v>
+        <v>36.7</v>
       </c>
       <c r="J6" t="n">
-        <v>78.40000000000001</v>
+        <v>78.2</v>
       </c>
       <c r="K6" t="n">
         <v>0.469</v>
       </c>
       <c r="L6" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="M6" t="n">
-        <v>20.5</v>
+        <v>20.4</v>
       </c>
       <c r="N6" t="n">
-        <v>0.39</v>
+        <v>0.388</v>
       </c>
       <c r="O6" t="n">
         <v>18.9</v>
       </c>
       <c r="P6" t="n">
-        <v>25</v>
+        <v>25.1</v>
       </c>
       <c r="Q6" t="n">
         <v>0.754</v>
@@ -1448,7 +1515,7 @@
         <v>20.1</v>
       </c>
       <c r="V6" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="W6" t="n">
         <v>7.5</v>
@@ -1460,19 +1527,19 @@
         <v>4</v>
       </c>
       <c r="Z6" t="n">
-        <v>20.1</v>
+        <v>20.2</v>
       </c>
       <c r="AA6" t="n">
-        <v>20.5</v>
+        <v>20.6</v>
       </c>
       <c r="AB6" t="n">
-        <v>100.4</v>
+        <v>100.2</v>
       </c>
       <c r="AC6" t="n">
-        <v>9.1</v>
+        <v>8.9</v>
       </c>
       <c r="AD6" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="AE6" t="n">
         <v>1</v>
@@ -1496,7 +1563,7 @@
         <v>5</v>
       </c>
       <c r="AL6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AM6" t="n">
         <v>5</v>
@@ -1508,22 +1575,22 @@
         <v>17</v>
       </c>
       <c r="AP6" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AQ6" t="n">
         <v>24</v>
       </c>
       <c r="AR6" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AS6" t="n">
         <v>9</v>
       </c>
       <c r="AT6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AU6" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AV6" t="n">
         <v>7</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>3-26-2008-09</t>
+          <t>2009-03-26</t>
         </is>
       </c>
     </row>
@@ -1654,7 +1721,7 @@
         <v>1.6</v>
       </c>
       <c r="AD7" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AE7" t="n">
         <v>11</v>
@@ -1675,7 +1742,7 @@
         <v>6</v>
       </c>
       <c r="AK7" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AL7" t="n">
         <v>14</v>
@@ -1690,7 +1757,7 @@
         <v>24</v>
       </c>
       <c r="AP7" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AQ7" t="n">
         <v>2</v>
@@ -1717,13 +1784,13 @@
         <v>10</v>
       </c>
       <c r="AY7" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AZ7" t="n">
         <v>4</v>
       </c>
       <c r="BA7" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BB7" t="n">
         <v>9</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>3-26-2008-09</t>
+          <t>2009-03-26</t>
         </is>
       </c>
     </row>
@@ -1836,7 +1903,7 @@
         <v>3.1</v>
       </c>
       <c r="AD8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AE8" t="n">
         <v>7</v>
@@ -1848,7 +1915,7 @@
         <v>7</v>
       </c>
       <c r="AH8" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AI8" t="n">
         <v>12</v>
@@ -1866,7 +1933,7 @@
         <v>18</v>
       </c>
       <c r="AN8" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AO8" t="n">
         <v>1</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>3-26-2008-09</t>
+          <t>2009-03-26</t>
         </is>
       </c>
     </row>
@@ -1940,43 +2007,43 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E9" t="n">
         <v>34</v>
       </c>
       <c r="F9" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G9" t="n">
-        <v>0.479</v>
+        <v>0.486</v>
       </c>
       <c r="H9" t="n">
         <v>48.6</v>
       </c>
       <c r="I9" t="n">
-        <v>36.3</v>
+        <v>36.4</v>
       </c>
       <c r="J9" t="n">
-        <v>80</v>
+        <v>80.09999999999999</v>
       </c>
       <c r="K9" t="n">
-        <v>0.454</v>
+        <v>0.455</v>
       </c>
       <c r="L9" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="M9" t="n">
         <v>12.9</v>
       </c>
       <c r="N9" t="n">
-        <v>0.345</v>
+        <v>0.346</v>
       </c>
       <c r="O9" t="n">
         <v>16.8</v>
       </c>
       <c r="P9" t="n">
-        <v>22.3</v>
+        <v>22.4</v>
       </c>
       <c r="Q9" t="n">
         <v>0.753</v>
@@ -1988,13 +2055,13 @@
         <v>29.7</v>
       </c>
       <c r="T9" t="n">
-        <v>41.1</v>
+        <v>41.2</v>
       </c>
       <c r="U9" t="n">
         <v>20.6</v>
       </c>
       <c r="V9" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="W9" t="n">
         <v>6.2</v>
@@ -2009,16 +2076,16 @@
         <v>21</v>
       </c>
       <c r="AA9" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="AB9" t="n">
-        <v>93.90000000000001</v>
+        <v>94.09999999999999</v>
       </c>
       <c r="AC9" t="n">
-        <v>-0.7</v>
+        <v>-0.5</v>
       </c>
       <c r="AD9" t="n">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="AE9" t="n">
         <v>16</v>
@@ -2030,16 +2097,16 @@
         <v>16</v>
       </c>
       <c r="AH9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AI9" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AJ9" t="n">
         <v>17</v>
       </c>
       <c r="AK9" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AL9" t="n">
         <v>28</v>
@@ -2054,7 +2121,7 @@
         <v>29</v>
       </c>
       <c r="AP9" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AQ9" t="n">
         <v>25</v>
@@ -2075,13 +2142,13 @@
         <v>1</v>
       </c>
       <c r="AW9" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AX9" t="n">
         <v>20</v>
       </c>
       <c r="AY9" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AZ9" t="n">
         <v>18</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>3-26-2008-09</t>
+          <t>2009-03-26</t>
         </is>
       </c>
     </row>
@@ -2200,7 +2267,7 @@
         <v>-3.7</v>
       </c>
       <c r="AD10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AE10" t="n">
         <v>24</v>
@@ -2221,7 +2288,7 @@
         <v>3</v>
       </c>
       <c r="AK10" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AL10" t="n">
         <v>16</v>
@@ -2248,13 +2315,13 @@
         <v>14</v>
       </c>
       <c r="AT10" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AU10" t="n">
         <v>14</v>
       </c>
       <c r="AV10" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AW10" t="n">
         <v>6</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>3-26-2008-09</t>
+          <t>2009-03-26</t>
         </is>
       </c>
     </row>
@@ -2424,7 +2491,7 @@
         <v>4</v>
       </c>
       <c r="AR11" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AS11" t="n">
         <v>2</v>
@@ -2436,7 +2503,7 @@
         <v>19</v>
       </c>
       <c r="AV11" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AW11" t="n">
         <v>25</v>
@@ -2451,13 +2518,13 @@
         <v>2</v>
       </c>
       <c r="BA11" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BB11" t="n">
         <v>18</v>
       </c>
       <c r="BC11" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BD11" t="n">
         <v>10</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>3-26-2008-09</t>
+          <t>2009-03-26</t>
         </is>
       </c>
     </row>
@@ -2564,7 +2631,7 @@
         <v>-1.9</v>
       </c>
       <c r="AD12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AE12" t="n">
         <v>20</v>
@@ -2588,7 +2655,7 @@
         <v>21</v>
       </c>
       <c r="AL12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AM12" t="n">
         <v>3</v>
@@ -2621,10 +2688,10 @@
         <v>20</v>
       </c>
       <c r="AW12" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AX12" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AY12" t="n">
         <v>26</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>3-26-2008-09</t>
+          <t>2009-03-26</t>
         </is>
       </c>
     </row>
@@ -2746,7 +2813,7 @@
         <v>-8.4</v>
       </c>
       <c r="AD13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AE13" t="n">
         <v>27</v>
@@ -2791,7 +2858,7 @@
         <v>16</v>
       </c>
       <c r="AS13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AT13" t="n">
         <v>22</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>3-26-2008-09</t>
+          <t>2009-03-26</t>
         </is>
       </c>
     </row>
@@ -2874,13 +2941,13 @@
         <v>0.478</v>
       </c>
       <c r="L14" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="M14" t="n">
-        <v>18.7</v>
+        <v>18.6</v>
       </c>
       <c r="N14" t="n">
-        <v>0.365</v>
+        <v>0.368</v>
       </c>
       <c r="O14" t="n">
         <v>19.8</v>
@@ -2895,16 +2962,16 @@
         <v>12.5</v>
       </c>
       <c r="S14" t="n">
-        <v>31.6</v>
+        <v>31.7</v>
       </c>
       <c r="T14" t="n">
-        <v>44.1</v>
+        <v>44.2</v>
       </c>
       <c r="U14" t="n">
         <v>23.5</v>
       </c>
       <c r="V14" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="W14" t="n">
         <v>8.699999999999999</v>
@@ -2913,19 +2980,19 @@
         <v>5.3</v>
       </c>
       <c r="Y14" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="Z14" t="n">
         <v>20.6</v>
       </c>
       <c r="AA14" t="n">
-        <v>22.3</v>
+        <v>22.2</v>
       </c>
       <c r="AB14" t="n">
         <v>108.2</v>
       </c>
       <c r="AC14" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="AD14" t="n">
         <v>25</v>
@@ -2952,22 +3019,22 @@
         <v>3</v>
       </c>
       <c r="AL14" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AM14" t="n">
         <v>14</v>
       </c>
       <c r="AN14" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AO14" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AP14" t="n">
         <v>7</v>
       </c>
       <c r="AQ14" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AR14" t="n">
         <v>3</v>
@@ -2988,7 +3055,7 @@
         <v>3</v>
       </c>
       <c r="AX14" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AY14" t="n">
         <v>14</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>3-26-2008-09</t>
+          <t>2009-03-26</t>
         </is>
       </c>
     </row>
@@ -3146,10 +3213,10 @@
         <v>15</v>
       </c>
       <c r="AP15" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AQ15" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AR15" t="n">
         <v>20</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>3-26-2008-09</t>
+          <t>2009-03-26</t>
         </is>
       </c>
     </row>
@@ -3214,37 +3281,37 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E16" t="n">
         <v>38</v>
       </c>
       <c r="F16" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G16" t="n">
-        <v>0.528</v>
+        <v>0.535</v>
       </c>
       <c r="H16" t="n">
         <v>48.6</v>
       </c>
       <c r="I16" t="n">
-        <v>36.9</v>
+        <v>37</v>
       </c>
       <c r="J16" t="n">
-        <v>81.3</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="K16" t="n">
-        <v>0.455</v>
+        <v>0.454</v>
       </c>
       <c r="L16" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="M16" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="N16" t="n">
-        <v>0.349</v>
+        <v>0.35</v>
       </c>
       <c r="O16" t="n">
         <v>17.4</v>
@@ -3259,10 +3326,10 @@
         <v>10.2</v>
       </c>
       <c r="S16" t="n">
-        <v>29</v>
+        <v>29.1</v>
       </c>
       <c r="T16" t="n">
-        <v>39.2</v>
+        <v>39.3</v>
       </c>
       <c r="U16" t="n">
         <v>20.4</v>
@@ -3283,25 +3350,25 @@
         <v>20.7</v>
       </c>
       <c r="AA16" t="n">
-        <v>20</v>
+        <v>20.1</v>
       </c>
       <c r="AB16" t="n">
-        <v>98.09999999999999</v>
+        <v>98.3</v>
       </c>
       <c r="AC16" t="n">
-        <v>-0.2</v>
+        <v>0.1</v>
       </c>
       <c r="AD16" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="AE16" t="n">
         <v>14</v>
       </c>
       <c r="AF16" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AG16" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AH16" t="n">
         <v>1</v>
@@ -3313,16 +3380,16 @@
         <v>12</v>
       </c>
       <c r="AK16" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AL16" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AM16" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AN16" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AO16" t="n">
         <v>27</v>
@@ -3355,16 +3422,16 @@
         <v>4</v>
       </c>
       <c r="AY16" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AZ16" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BA16" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BB16" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BC16" t="n">
         <v>15</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>3-26-2008-09</t>
+          <t>2009-03-26</t>
         </is>
       </c>
     </row>
@@ -3396,16 +3463,16 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E17" t="n">
         <v>31</v>
       </c>
       <c r="F17" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G17" t="n">
-        <v>0.437</v>
+        <v>0.431</v>
       </c>
       <c r="H17" t="n">
         <v>48.3</v>
@@ -3414,46 +3481,46 @@
         <v>36.5</v>
       </c>
       <c r="J17" t="n">
-        <v>82.2</v>
+        <v>82.09999999999999</v>
       </c>
       <c r="K17" t="n">
-        <v>0.444</v>
+        <v>0.445</v>
       </c>
       <c r="L17" t="n">
         <v>6.1</v>
       </c>
       <c r="M17" t="n">
-        <v>16.9</v>
+        <v>16.8</v>
       </c>
       <c r="N17" t="n">
-        <v>0.362</v>
+        <v>0.363</v>
       </c>
       <c r="O17" t="n">
-        <v>20.1</v>
+        <v>20</v>
       </c>
       <c r="P17" t="n">
-        <v>25.6</v>
+        <v>25.5</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.784</v>
+        <v>0.783</v>
       </c>
       <c r="R17" t="n">
         <v>12.1</v>
       </c>
       <c r="S17" t="n">
-        <v>28.9</v>
+        <v>28.8</v>
       </c>
       <c r="T17" t="n">
-        <v>41</v>
+        <v>40.9</v>
       </c>
       <c r="U17" t="n">
         <v>21.5</v>
       </c>
       <c r="V17" t="n">
-        <v>14.2</v>
+        <v>14.3</v>
       </c>
       <c r="W17" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="X17" t="n">
         <v>3.8</v>
@@ -3465,37 +3532,37 @@
         <v>24.3</v>
       </c>
       <c r="AA17" t="n">
-        <v>22.8</v>
+        <v>22.7</v>
       </c>
       <c r="AB17" t="n">
-        <v>99.2</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="AC17" t="n">
-        <v>-1</v>
+        <v>-1.2</v>
       </c>
       <c r="AD17" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="AE17" t="n">
         <v>18</v>
       </c>
       <c r="AF17" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AG17" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AH17" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AI17" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AJ17" t="n">
         <v>8</v>
       </c>
       <c r="AK17" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AL17" t="n">
         <v>21</v>
@@ -3510,7 +3577,7 @@
         <v>6</v>
       </c>
       <c r="AP17" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AQ17" t="n">
         <v>11</v>
@@ -3519,25 +3586,25 @@
         <v>5</v>
       </c>
       <c r="AS17" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AT17" t="n">
         <v>20</v>
       </c>
       <c r="AU17" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AV17" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AW17" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AX17" t="n">
         <v>29</v>
       </c>
       <c r="AY17" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AZ17" t="n">
         <v>30</v>
@@ -3546,10 +3613,10 @@
         <v>4</v>
       </c>
       <c r="BB17" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BC17" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BD17" t="n">
         <v>10</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>3-26-2008-09</t>
+          <t>2009-03-26</t>
         </is>
       </c>
     </row>
@@ -3656,7 +3723,7 @@
         <v>-4.8</v>
       </c>
       <c r="AD18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AE18" t="n">
         <v>25</v>
@@ -3671,7 +3738,7 @@
         <v>18</v>
       </c>
       <c r="AI18" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AJ18" t="n">
         <v>7</v>
@@ -3686,16 +3753,16 @@
         <v>15</v>
       </c>
       <c r="AN18" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AO18" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AP18" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AQ18" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AR18" t="n">
         <v>7</v>
@@ -3707,10 +3774,10 @@
         <v>13</v>
       </c>
       <c r="AU18" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AV18" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AW18" t="n">
         <v>27</v>
@@ -3728,7 +3795,7 @@
         <v>23</v>
       </c>
       <c r="BB18" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BC18" t="n">
         <v>25</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>3-26-2008-09</t>
+          <t>2009-03-26</t>
         </is>
       </c>
     </row>
@@ -3838,13 +3905,13 @@
         <v>-2.3</v>
       </c>
       <c r="AD19" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AE19" t="n">
         <v>20</v>
       </c>
       <c r="AF19" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AG19" t="n">
         <v>20</v>
@@ -3862,19 +3929,19 @@
         <v>23</v>
       </c>
       <c r="AL19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AM19" t="n">
         <v>4</v>
       </c>
       <c r="AN19" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AO19" t="n">
         <v>14</v>
       </c>
       <c r="AP19" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AQ19" t="n">
         <v>12</v>
@@ -3892,13 +3959,13 @@
         <v>26</v>
       </c>
       <c r="AV19" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AW19" t="n">
         <v>22</v>
       </c>
       <c r="AX19" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AY19" t="n">
         <v>15</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>3-26-2008-09</t>
+          <t>2009-03-26</t>
         </is>
       </c>
     </row>
@@ -4023,13 +4090,13 @@
         <v>25</v>
       </c>
       <c r="AE20" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AF20" t="n">
         <v>6</v>
       </c>
       <c r="AG20" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AH20" t="n">
         <v>28</v>
@@ -4089,7 +4156,7 @@
         <v>9</v>
       </c>
       <c r="BA20" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BB20" t="n">
         <v>25</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>3-26-2008-09</t>
+          <t>2009-03-26</t>
         </is>
       </c>
     </row>
@@ -4202,7 +4269,7 @@
         <v>-2.6</v>
       </c>
       <c r="AD21" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AE21" t="n">
         <v>22</v>
@@ -4223,7 +4290,7 @@
         <v>1</v>
       </c>
       <c r="AK21" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AL21" t="n">
         <v>2</v>
@@ -4250,7 +4317,7 @@
         <v>8</v>
       </c>
       <c r="AT21" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AU21" t="n">
         <v>11</v>
@@ -4259,7 +4326,7 @@
         <v>18</v>
       </c>
       <c r="AW21" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AX21" t="n">
         <v>30</v>
@@ -4268,10 +4335,10 @@
         <v>22</v>
       </c>
       <c r="AZ21" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BA21" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="BB21" t="n">
         <v>4</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>3-26-2008-09</t>
+          <t>2009-03-26</t>
         </is>
       </c>
     </row>
@@ -4384,7 +4451,7 @@
         <v>-5.5</v>
       </c>
       <c r="AD22" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AE22" t="n">
         <v>25</v>
@@ -4399,7 +4466,7 @@
         <v>15</v>
       </c>
       <c r="AI22" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AJ22" t="n">
         <v>9</v>
@@ -4417,7 +4484,7 @@
         <v>24</v>
       </c>
       <c r="AO22" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AP22" t="n">
         <v>11</v>
@@ -4435,7 +4502,7 @@
         <v>4</v>
       </c>
       <c r="AU22" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AV22" t="n">
         <v>30</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>3-26-2008-09</t>
+          <t>2009-03-26</t>
         </is>
       </c>
     </row>
@@ -4566,10 +4633,10 @@
         <v>7.3</v>
       </c>
       <c r="AD23" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AE23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AF23" t="n">
         <v>3</v>
@@ -4587,7 +4654,7 @@
         <v>26</v>
       </c>
       <c r="AK23" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AL23" t="n">
         <v>1</v>
@@ -4599,7 +4666,7 @@
         <v>4</v>
       </c>
       <c r="AO23" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AP23" t="n">
         <v>4</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>3-26-2008-09</t>
+          <t>2009-03-26</t>
         </is>
       </c>
     </row>
@@ -4757,7 +4824,7 @@
         <v>14</v>
       </c>
       <c r="AG24" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AH24" t="n">
         <v>24</v>
@@ -4781,7 +4848,7 @@
         <v>30</v>
       </c>
       <c r="AO24" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AP24" t="n">
         <v>6</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>3-26-2008-09</t>
+          <t>2009-03-26</t>
         </is>
       </c>
     </row>
@@ -4852,25 +4919,25 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E25" t="n">
         <v>40</v>
       </c>
       <c r="F25" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G25" t="n">
-        <v>0.556</v>
+        <v>0.5629999999999999</v>
       </c>
       <c r="H25" t="n">
         <v>48.1</v>
       </c>
       <c r="I25" t="n">
-        <v>41</v>
+        <v>40.9</v>
       </c>
       <c r="J25" t="n">
-        <v>81</v>
+        <v>80.8</v>
       </c>
       <c r="K25" t="n">
         <v>0.507</v>
@@ -4882,22 +4949,22 @@
         <v>17.4</v>
       </c>
       <c r="N25" t="n">
-        <v>0.384</v>
+        <v>0.385</v>
       </c>
       <c r="O25" t="n">
-        <v>20.3</v>
+        <v>20.4</v>
       </c>
       <c r="P25" t="n">
-        <v>26.9</v>
+        <v>27</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.754</v>
+        <v>0.756</v>
       </c>
       <c r="R25" t="n">
-        <v>10.5</v>
+        <v>10.4</v>
       </c>
       <c r="S25" t="n">
-        <v>30.9</v>
+        <v>31.1</v>
       </c>
       <c r="T25" t="n">
         <v>41.5</v>
@@ -4909,13 +4976,13 @@
         <v>15.7</v>
       </c>
       <c r="W25" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="X25" t="n">
         <v>5.1</v>
       </c>
       <c r="Y25" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="Z25" t="n">
         <v>20.8</v>
@@ -4927,10 +4994,10 @@
         <v>109</v>
       </c>
       <c r="AC25" t="n">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="AD25" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="AE25" t="n">
         <v>13</v>
@@ -4942,13 +5009,13 @@
         <v>13</v>
       </c>
       <c r="AH25" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AI25" t="n">
         <v>1</v>
       </c>
       <c r="AJ25" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AK25" t="n">
         <v>1</v>
@@ -4969,10 +5036,10 @@
         <v>5</v>
       </c>
       <c r="AQ25" t="n">
+        <v>22</v>
+      </c>
+      <c r="AR25" t="n">
         <v>23</v>
-      </c>
-      <c r="AR25" t="n">
-        <v>22</v>
       </c>
       <c r="AS25" t="n">
         <v>10</v>
@@ -4999,7 +5066,7 @@
         <v>17</v>
       </c>
       <c r="BA25" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BB25" t="n">
         <v>1</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>3-26-2008-09</t>
+          <t>2009-03-26</t>
         </is>
       </c>
     </row>
@@ -5037,55 +5104,55 @@
         <v>71</v>
       </c>
       <c r="E26" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F26" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G26" t="n">
-        <v>0.634</v>
+        <v>0.62</v>
       </c>
       <c r="H26" t="n">
         <v>48.4</v>
       </c>
       <c r="I26" t="n">
-        <v>36.7</v>
+        <v>36.5</v>
       </c>
       <c r="J26" t="n">
         <v>79.3</v>
       </c>
       <c r="K26" t="n">
-        <v>0.463</v>
+        <v>0.459</v>
       </c>
       <c r="L26" t="n">
         <v>7.3</v>
       </c>
       <c r="M26" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="N26" t="n">
-        <v>0.38</v>
+        <v>0.379</v>
       </c>
       <c r="O26" t="n">
-        <v>18.8</v>
+        <v>18.7</v>
       </c>
       <c r="P26" t="n">
-        <v>24.5</v>
+        <v>24.3</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.77</v>
+        <v>0.769</v>
       </c>
       <c r="R26" t="n">
         <v>12.9</v>
       </c>
       <c r="S26" t="n">
-        <v>28.4</v>
+        <v>28.5</v>
       </c>
       <c r="T26" t="n">
-        <v>41.3</v>
+        <v>41.4</v>
       </c>
       <c r="U26" t="n">
-        <v>20.3</v>
+        <v>20.2</v>
       </c>
       <c r="V26" t="n">
         <v>12.8</v>
@@ -5094,64 +5161,64 @@
         <v>6.6</v>
       </c>
       <c r="X26" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="Y26" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="Z26" t="n">
         <v>20.6</v>
       </c>
       <c r="AA26" t="n">
-        <v>21.3</v>
+        <v>21.2</v>
       </c>
       <c r="AB26" t="n">
-        <v>99.59999999999999</v>
+        <v>98.8</v>
       </c>
       <c r="AC26" t="n">
-        <v>4.2</v>
+        <v>3.7</v>
       </c>
       <c r="AD26" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AE26" t="n">
         <v>8</v>
       </c>
       <c r="AF26" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AG26" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AH26" t="n">
         <v>10</v>
       </c>
       <c r="AI26" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AJ26" t="n">
         <v>22</v>
       </c>
       <c r="AK26" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AL26" t="n">
         <v>9</v>
       </c>
       <c r="AM26" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AN26" t="n">
         <v>7</v>
       </c>
       <c r="AO26" t="n">
+        <v>19</v>
+      </c>
+      <c r="AP26" t="n">
         <v>18</v>
       </c>
-      <c r="AP26" t="n">
-        <v>16</v>
-      </c>
       <c r="AQ26" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AR26" t="n">
         <v>1</v>
@@ -5163,7 +5230,7 @@
         <v>16</v>
       </c>
       <c r="AU26" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AV26" t="n">
         <v>6</v>
@@ -5178,16 +5245,16 @@
         <v>3</v>
       </c>
       <c r="AZ26" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BA26" t="n">
         <v>12</v>
       </c>
       <c r="BB26" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BC26" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BD26" t="n">
         <v>10</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>3-26-2008-09</t>
+          <t>2009-03-26</t>
         </is>
       </c>
     </row>
@@ -5312,7 +5379,7 @@
         <v>23</v>
       </c>
       <c r="AJ27" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AK27" t="n">
         <v>24</v>
@@ -5321,7 +5388,7 @@
         <v>11</v>
       </c>
       <c r="AM27" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AN27" t="n">
         <v>18</v>
@@ -5330,7 +5397,7 @@
         <v>4</v>
       </c>
       <c r="AP27" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AQ27" t="n">
         <v>6</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>3-26-2008-09</t>
+          <t>2009-03-26</t>
         </is>
       </c>
     </row>
@@ -5476,7 +5543,7 @@
         <v>3.8</v>
       </c>
       <c r="AD28" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AE28" t="n">
         <v>5</v>
@@ -5488,7 +5555,7 @@
         <v>5</v>
       </c>
       <c r="AH28" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AI28" t="n">
         <v>10</v>
@@ -5503,7 +5570,7 @@
         <v>6</v>
       </c>
       <c r="AM28" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AN28" t="n">
         <v>2</v>
@@ -5551,7 +5618,7 @@
         <v>24</v>
       </c>
       <c r="BC28" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BD28" t="n">
         <v>10</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>3-26-2008-09</t>
+          <t>2009-03-26</t>
         </is>
       </c>
     </row>
@@ -5658,7 +5725,7 @@
         <v>-3.3</v>
       </c>
       <c r="AD29" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AE29" t="n">
         <v>23</v>
@@ -5673,7 +5740,7 @@
         <v>21</v>
       </c>
       <c r="AI29" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AJ29" t="n">
         <v>19</v>
@@ -5715,10 +5782,10 @@
         <v>10</v>
       </c>
       <c r="AW29" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AX29" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AY29" t="n">
         <v>11</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>3-26-2008-09</t>
+          <t>2009-03-26</t>
         </is>
       </c>
     </row>
@@ -5840,16 +5907,16 @@
         <v>3.6</v>
       </c>
       <c r="AD30" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AE30" t="n">
+        <v>8</v>
+      </c>
+      <c r="AF30" t="n">
         <v>9</v>
       </c>
-      <c r="AF30" t="n">
-        <v>10</v>
-      </c>
       <c r="AG30" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AH30" t="n">
         <v>8</v>
@@ -5858,7 +5925,7 @@
         <v>6</v>
       </c>
       <c r="AJ30" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AK30" t="n">
         <v>4</v>
@@ -5879,7 +5946,7 @@
         <v>3</v>
       </c>
       <c r="AQ30" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AR30" t="n">
         <v>9</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>3-26-2008-09</t>
+          <t>2009-03-26</t>
         </is>
       </c>
     </row>
@@ -6037,7 +6104,7 @@
         <v>30</v>
       </c>
       <c r="AI31" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AJ31" t="n">
         <v>11</v>
@@ -6088,7 +6155,7 @@
         <v>23</v>
       </c>
       <c r="AZ31" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BA31" t="n">
         <v>29</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>3-26-2008-09</t>
+          <t>2009-03-26</t>
         </is>
       </c>
     </row>
